--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7169562-4E71-4E73-9C20-7B90964C89EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33455C76-0086-4FE9-8BC2-C70E11D3C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19005" yWindow="4665" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Branco 2</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0\ &quot;mL&quot;"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;mL&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,29 +140,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,104 +451,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>45075.45</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>0.42</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <f>B2 * 600 / 100 *100</f>
         <v>252</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>0.97</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="6">
         <f>D2 * 600 / 100 * 100</f>
         <v>582</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="6">
         <f>F2 * 600 / 100 * 100</f>
         <v>330</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>0.32</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="6">
         <f>H2 * 600 / 100 * 100</f>
         <v>192</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="5">
         <v>0.93</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="6">
         <f>J2 * 600 / 100 * 100</f>
         <v>558</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>0.22</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="6">
         <f>L2 * 600 / 100 * 100</f>
         <v>132</v>
       </c>
+      <c r="N2" s="6">
+        <f>C2+E2+G2+I2+K2+M2</f>
+        <v>2046</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>45083.338888888888</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3 * 600 / 100 *100</f>
+        <v>227.99999999999997</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3 * 600 / 100 * 100</f>
+        <v>552</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3 * 600 / 100 * 100</f>
+        <v>306</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3 * 600 / 100 * 100</f>
+        <v>162</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="K3" s="6">
+        <f>J3 * 600 / 100 * 100</f>
+        <v>504</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3 * 600 / 100 * 100</f>
+        <v>108</v>
+      </c>
+      <c r="N3" s="6">
+        <f>C3+E3+G3+I3+K3+M3</f>
+        <v>1860</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33455C76-0086-4FE9-8BC2-C70E11D3C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1774C-4168-45FD-9092-0F28076A13F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,6 +148,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -158,12 +164,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +454,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,30 +467,30 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>45083.338888888888</v>
       </c>
       <c r="B3" s="5">

--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1774C-4168-45FD-9092-0F28076A13F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ADFDD4-4EF8-401E-A9D8-19F78DD214CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +595,57 @@
       <c r="N3" s="6">
         <f>C3+E3+G3+I3+K3+M3</f>
         <v>1860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45089.591666666667</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4 * 600 / 100 *100</f>
+        <v>210</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="6">
+        <f>D4 * 600 / 100 * 100</f>
+        <v>540</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="G4" s="6">
+        <f>F4 * 600 / 100 * 100</f>
+        <v>294</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="6">
+        <f>H4 * 600 / 100 * 100</f>
+        <v>150</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4 * 600 / 100 * 100</f>
+        <v>491.99999999999989</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M4" s="6">
+        <f>L4 * 600 / 100 * 100</f>
+        <v>90</v>
+      </c>
+      <c r="N4" s="6">
+        <f>C4+E4+G4+I4+K4+M4</f>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>

--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ADFDD4-4EF8-401E-A9D8-19F78DD214CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240C15C-57AA-498F-A0E2-DA70AD873B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,12 +454,14 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -658,5 +660,6 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -1,97 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240C15C-57AA-498F-A0E2-DA70AD873B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Cyan</t>
-  </si>
-  <si>
-    <t>Magenta</t>
-  </si>
-  <si>
-    <t>Amarelo</t>
-  </si>
-  <si>
-    <t>Preto</t>
-  </si>
-  <si>
-    <t>Branco 1</t>
-  </si>
-  <si>
-    <t>Branco 2</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;mL&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,59 +92,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF00FF"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -450,216 +415,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col width="17.5703125" customWidth="1" style="8" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="3" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>Magenta</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="14" t="inlineStr">
+        <is>
+          <t>Cyan</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="15" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="17" t="inlineStr">
+        <is>
+          <t>Branco 1</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="17" t="inlineStr">
+        <is>
+          <t>Branco 2</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="4" t="n">
         <v>45075.45</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="n">
         <v>0.42</v>
       </c>
       <c r="C2" s="6">
         <f>B2 * 600 / 100 *100</f>
-        <v>252</v>
-      </c>
-      <c r="D2" s="5">
+        <v/>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>0.97</v>
       </c>
       <c r="E2" s="6">
         <f>D2 * 600 / 100 * 100</f>
-        <v>582</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.55000000000000004</v>
+        <v/>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.55</v>
       </c>
       <c r="G2" s="6">
         <f>F2 * 600 / 100 * 100</f>
-        <v>330</v>
-      </c>
-      <c r="H2" s="5">
+        <v/>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>0.32</v>
       </c>
       <c r="I2" s="6">
         <f>H2 * 600 / 100 * 100</f>
-        <v>192</v>
-      </c>
-      <c r="J2" s="5">
+        <v/>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>0.93</v>
       </c>
       <c r="K2" s="6">
         <f>J2 * 600 / 100 * 100</f>
-        <v>558</v>
-      </c>
-      <c r="L2" s="5">
+        <v/>
+      </c>
+      <c r="L2" s="5" t="n">
         <v>0.22</v>
       </c>
       <c r="M2" s="6">
         <f>L2 * 600 / 100 * 100</f>
-        <v>132</v>
+        <v/>
       </c>
       <c r="N2" s="6">
         <f>C2+E2+G2+I2+K2+M2</f>
-        <v>2046</v>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45083.338888888888</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>45083.33888888889</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>0.38</v>
       </c>
       <c r="C3" s="6">
         <f>B3 * 600 / 100 *100</f>
-        <v>227.99999999999997</v>
-      </c>
-      <c r="D3" s="5">
+        <v/>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>0.92</v>
       </c>
       <c r="E3" s="6">
         <f>D3 * 600 / 100 * 100</f>
-        <v>552</v>
-      </c>
-      <c r="F3" s="5">
+        <v/>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>0.51</v>
       </c>
       <c r="G3" s="6">
         <f>F3 * 600 / 100 * 100</f>
-        <v>306</v>
-      </c>
-      <c r="H3" s="5">
+        <v/>
+      </c>
+      <c r="H3" s="5" t="n">
         <v>0.27</v>
       </c>
       <c r="I3" s="6">
         <f>H3 * 600 / 100 * 100</f>
-        <v>162</v>
-      </c>
-      <c r="J3" s="5">
+        <v/>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>0.84</v>
       </c>
       <c r="K3" s="6">
         <f>J3 * 600 / 100 * 100</f>
-        <v>504</v>
-      </c>
-      <c r="L3" s="5">
+        <v/>
+      </c>
+      <c r="L3" s="5" t="n">
         <v>0.18</v>
       </c>
       <c r="M3" s="6">
         <f>L3 * 600 / 100 * 100</f>
-        <v>108</v>
+        <v/>
       </c>
       <c r="N3" s="6">
         <f>C3+E3+G3+I3+K3+M3</f>
-        <v>1860</v>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45089.591666666667</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>45089.59166666667</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>0.35</v>
       </c>
       <c r="C4" s="6">
         <f>B4 * 600 / 100 *100</f>
-        <v>210</v>
-      </c>
-      <c r="D4" s="5">
+        <v/>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>0.9</v>
       </c>
       <c r="E4" s="6">
         <f>D4 * 600 / 100 * 100</f>
-        <v>540</v>
-      </c>
-      <c r="F4" s="5">
+        <v/>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>0.49</v>
       </c>
       <c r="G4" s="6">
         <f>F4 * 600 / 100 * 100</f>
-        <v>294</v>
-      </c>
-      <c r="H4" s="5">
+        <v/>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>0.25</v>
       </c>
       <c r="I4" s="6">
         <f>H4 * 600 / 100 * 100</f>
-        <v>150</v>
-      </c>
-      <c r="J4" s="5">
+        <v/>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>0.82</v>
       </c>
       <c r="K4" s="6">
         <f>J4 * 600 / 100 * 100</f>
-        <v>491.99999999999989</v>
-      </c>
-      <c r="L4" s="5">
+        <v/>
+      </c>
+      <c r="L4" s="5" t="n">
         <v>0.15</v>
       </c>
       <c r="M4" s="6">
         <f>L4 * 600 / 100 * 100</f>
-        <v>90</v>
+        <v/>
       </c>
       <c r="N4" s="6">
         <f>C4+E4+G4+I4+K4+M4</f>
-        <v>1776</v>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21/06/2023 11:00</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C5" s="6">
+        <f>D5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E5" s="6">
+        <f>B5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G5" s="6">
+        <f>F5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="6">
+        <f>J5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M5" s="6">
+        <f>L5 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N5" s="6">
+        <f>C5+E5+G5+I5+K5+M5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26/06/2023 10:34</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="6">
+        <f>D6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="6">
+        <f>B6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G6" s="6">
+        <f>F6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K6" s="6">
+        <f>J6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N6" s="6">
+        <f>C6+E6+G6+I6+K6+M6</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -1,57 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repositorios\ConsumoDeTinta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A977443-7449-4752-9C4D-6DCD3CEF9DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2175" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Branco 1</t>
+  </si>
+  <si>
+    <t>Branco 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>21/06/2023 11:00</t>
+  </si>
+  <si>
+    <t>26/06/2023 10:34</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;mL&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,64 +133,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,330 +447,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17.5703125" customWidth="1" style="8" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="5" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
+    <col min="1" max="1" width="17.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Magenta</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="14" t="inlineStr">
-        <is>
-          <t>Cyan</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="15" t="inlineStr">
-        <is>
-          <t>Amarelo</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-      <c r="H1" s="16" t="inlineStr">
-        <is>
-          <t>Preto</t>
-        </is>
-      </c>
-      <c r="I1" s="6" t="n"/>
-      <c r="J1" s="17" t="inlineStr">
-        <is>
-          <t>Branco 1</t>
-        </is>
-      </c>
-      <c r="K1" s="6" t="n"/>
-      <c r="L1" s="17" t="inlineStr">
-        <is>
-          <t>Branco 2</t>
-        </is>
-      </c>
-      <c r="M1" s="6" t="n"/>
-      <c r="N1" s="18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>45075.45</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="3">
         <v>0.42</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <f>B2 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D2" s="5" t="n">
+        <v>252</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.97</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <f>D2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G2" s="6">
+        <v>582</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="4">
         <f>F2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="n">
+        <v>330</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.32</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <f>H2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J2" s="5" t="n">
+        <v>192</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.93</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <f>J2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L2" s="5" t="n">
+        <v>558</v>
+      </c>
+      <c r="L2" s="3">
         <v>0.22</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <f>L2 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N2" s="6">
+        <v>132</v>
+      </c>
+      <c r="N2" s="4">
         <f>C2+E2+G2+I2+K2+M2</f>
-        <v/>
+        <v>2046</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>45083.33888888889</v>
-      </c>
-      <c r="B3" s="5" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45083.338888888888</v>
+      </c>
+      <c r="B3" s="3">
         <v>0.38</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <f>B3 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D3" s="5" t="n">
+        <v>227.99999999999997</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.92</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <f>D3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F3" s="5" t="n">
+        <v>552</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.51</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <f>F3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H3" s="5" t="n">
+        <v>306</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.27</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <f>H3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J3" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.84</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <f>J3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="n">
+        <v>504</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.18</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <f>L3 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N3" s="6">
+        <v>108</v>
+      </c>
+      <c r="N3" s="4">
         <f>C3+E3+G3+I3+K3+M3</f>
-        <v/>
+        <v>1860</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45089.59166666667</v>
-      </c>
-      <c r="B4" s="5" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45089.591666666667</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.35</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <f>B4 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D4" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f>D4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="F4" s="5" t="n">
+        <v>540</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.49</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f>F4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="H4" s="5" t="n">
+        <v>294</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.25</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <f>H4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="J4" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.82</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f>J4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="L4" s="5" t="n">
+        <v>491.99999999999989</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.15</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f>L4 * 600 / 100 * 100</f>
-        <v/>
-      </c>
-      <c r="N4" s="6">
+        <v>90</v>
+      </c>
+      <c r="N4" s="4">
         <f>C4+E4+G4+I4+K4+M4</f>
-        <v/>
+        <v>1776</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21/06/2023 11:00</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.31</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f>D5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D5" s="5" t="n">
+        <v>516</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.86</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f>B5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F5" s="5" t="n">
+        <v>186</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.45</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f>F5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="n">
+        <v>270</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.21</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>H5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J5" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.75</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f>J5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L5" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="L5" s="3">
         <v>0.11</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f>L5 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N5" s="6">
+        <v>66</v>
+      </c>
+      <c r="N5" s="4">
         <f>C5+E5+G5+I5+K5+M5</f>
-        <v/>
+        <v>1614</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26/06/2023 10:34</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>0.3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <f>D6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="D6" s="5" t="n">
+        <v>504</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.84</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f>B6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="F6" s="5" t="n">
+        <v>180</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.44</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f>F6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="n">
+        <v>264</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f>H6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="J6" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.71</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f>J6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="L6" s="5" t="n">
+        <v>426</v>
+      </c>
+      <c r="L6" s="3">
         <v>0.01</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f>L6 * 600 / 100 *100</f>
-        <v/>
-      </c>
-      <c r="N6" s="6">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
         <f>C6+E6+G6+I6+K6+M6</f>
-        <v/>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -751,6 +760,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -587,20 +587,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="9" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="9" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="9" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="9" t="n"/>
-      <c r="N3" s="9" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>10/07/2023 15:31</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="9">
+        <f>D3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="9">
+        <f>F3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="9">
+        <f>J3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M3" s="9">
+        <f>L3 * 600 / 100 *100</f>
+        <v/>
+      </c>
+      <c r="N3" s="9">
+        <f>C3+E3+G3+I3+K3+M3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>

--- a/Consumo.xlsx
+++ b/Consumo.xlsx
@@ -640,20 +640,50 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="9" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="9" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="9" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="9" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="9" t="n"/>
-      <c r="N4" s="9" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>18/07/2023 15:16</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>450</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>216</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>348</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>522</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>1734</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="n"/>
